--- a/data/quiz/python basic-4.xlsx
+++ b/data/quiz/python basic-4.xlsx
@@ -511,13 +511,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.37"/>
@@ -563,76 +563,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>2</v>
@@ -643,19 +617,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>4</v>
@@ -669,22 +643,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>2</v>
@@ -695,19 +669,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -721,22 +695,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2</v>
@@ -747,19 +721,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -773,22 +747,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2</v>
@@ -799,22 +773,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>2</v>
@@ -825,22 +799,22 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2</v>
@@ -851,19 +825,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -877,22 +851,22 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>2</v>
@@ -903,16 +877,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>75</v>
@@ -929,22 +903,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2</v>
@@ -955,22 +929,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>2</v>
@@ -981,22 +955,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>2</v>
@@ -1007,19 +981,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -1033,22 +1007,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>2</v>
@@ -1059,19 +1033,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -1085,22 +1059,22 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>2</v>
@@ -1111,22 +1085,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>2</v>
@@ -1137,22 +1111,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>2</v>
@@ -1163,22 +1137,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>2</v>
@@ -1189,22 +1163,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>2</v>
@@ -1215,27 +1189,53 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
